--- a/output/CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14478" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14478" uniqueCount="979">
   <si>
     <t>Path</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>ExplanationOfBenefit.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>ExplanationOfBenefit.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>ExplanationOfBenefit.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -287,7 +287,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -313,7 +313,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -348,7 +348,7 @@
     <t>ExplanationOfBenefit.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -400,7 +400,7 @@
     <t>ExplanationOfBenefit.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -474,7 +474,7 @@
     <t>This element is required to understand the nature of the request for adjudication.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="claim"/&gt;</t>
+    <t>claim</t>
   </si>
   <si>
     <t>Complete, proposed, exploratory, other.</t>
@@ -486,7 +486,7 @@
     <t>ExplanationOfBenefit.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>ExplanationOfBenefit.billablePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -530,7 +530,7 @@
     <t>ExplanationOfBenefit.created</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -555,7 +555,7 @@
     <t>ExplanationOfBenefit.enterer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>ExplanationOfBenefit.insurer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -672,7 +672,7 @@
     <t>ExplanationOfBenefit.related</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -695,7 +695,7 @@
     <t>ExplanationOfBenefit.related.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>ExplanationOfBenefit.related.claim</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Claim]]}
+    <t xml:space="preserve">Reference(Claim)
 </t>
   </si>
   <si>
@@ -786,7 +786,7 @@
     <t>ExplanationOfBenefit.prescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/VisionPrescription]]}
+    <t xml:space="preserve">Reference(MedicationRequest|VisionPrescription)
 </t>
   </si>
   <si>
@@ -802,7 +802,7 @@
     <t>ExplanationOfBenefit.originalPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest]]}
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -863,7 +863,7 @@
     <t>ExplanationOfBenefit.payee.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -882,7 +882,7 @@
     <t>ExplanationOfBenefit.referral</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
     <t>ExplanationOfBenefit.facility</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -941,7 +941,7 @@
     <t>ExplanationOfBenefit.claimResponse</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClaimResponse]]}
+    <t xml:space="preserve">Reference(ClaimResponse)
 </t>
   </si>
   <si>
@@ -1035,7 +1035,7 @@
     <t>ExplanationOfBenefit.careTeam.sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -1051,7 +1051,7 @@
     <t>ExplanationOfBenefit.careTeam.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -1070,7 +1070,7 @@
     <t>ExplanationOfBenefit.careTeam.responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1207,8 +1207,8 @@
     <t>ExplanationOfBenefit.supportingInfo.timing[x]</t>
   </si>
   <si>
-    <t>date {[]} {[]}
-Period {[]} {[]}</t>
+    <t>date
+Period</t>
   </si>
   <si>
     <t>When it occurred</t>
@@ -1220,8 +1220,8 @@
     <t>ExplanationOfBenefit.supportingInfo.value[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-string {[]} {[]}Quantity {[]} {[]}Attachment {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}</t>
+    <t>boolean
+stringQuantityAttachmentReference(Resource)</t>
   </si>
   <si>
     <t>Data to be provided</t>
@@ -1239,7 +1239,7 @@
     <t>ExplanationOfBenefit.supportingInfo.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -1300,10 +1300,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.supportingInfo.timingDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1448,7 +1445,7 @@
     <t>Necessary to maintain the order of the diagnosis items and provide a mechanism to link to claim details.</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.diagnosis.diagnosisCodeableConcept</t>
+    <t>ExplanationOfBenefit.diagnosis.diagnosis[x]</t>
   </si>
   <si>
     <t>Nature of illness or problem</t>
@@ -1466,9 +1463,6 @@
     <t>http://hl7.org/fhir/ValueSet/icd-10</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.diagnosis.diagnosis[x]</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.diagnosis.type</t>
   </si>
   <si>
@@ -1583,7 +1577,7 @@
     <t>Required for auditing purposes.</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.procedure.procedureCodeableConcept</t>
+    <t>ExplanationOfBenefit.procedure.procedure[x]</t>
   </si>
   <si>
     <t>Specific clinical procedure</t>
@@ -1601,13 +1595,10 @@
     <t>http://hl7.org/fhir/ValueSet/icd-10-procedures</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.procedure.procedure[x]</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1678,13 +1669,13 @@
     <t>To identify which coverage in the list is being used to adjudicate this claim.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Coverage]]}
+    <t xml:space="preserve">Reference(Coverage)
 </t>
   </si>
   <si>
@@ -1715,7 +1706,7 @@
     <t>primaryinsurance</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+    <t>false</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.accident</t>
@@ -1775,8 +1766,8 @@
     <t>ExplanationOfBenefit.accident.location[x]</t>
   </si>
   <si>
-    <t>Address {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}</t>
+    <t>Address
+Reference(Location)</t>
   </si>
   <si>
     <t>Where the event occurred</t>
@@ -1984,8 +1975,8 @@
     <t>ExplanationOfBenefit.item.location[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Address {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}</t>
+    <t>CodeableConcept
+AddressReference(Location)</t>
   </si>
   <si>
     <t>Place of service or where product was supplied</t>
@@ -2006,7 +1997,7 @@
     <t>ExplanationOfBenefit.item.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -2022,7 +2013,7 @@
     <t>ExplanationOfBenefit.item.unitPrice</t>
   </si>
   <si>
-    <t xml:space="preserve">Money {[]} {[]}
+    <t xml:space="preserve">Money
 </t>
   </si>
   <si>
@@ -2038,7 +2029,7 @@
     <t>ExplanationOfBenefit.item.factor</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
@@ -2111,7 +2102,7 @@
     <t>ExplanationOfBenefit.item.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2769,7 +2760,7 @@
     <t>ExplanationOfBenefit.form</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -3034,8 +3025,8 @@
     <t>ExplanationOfBenefit.benefitBalance.financial.allowed[x]</t>
   </si>
   <si>
-    <t>unsignedInt {[]} {[]}
-string {[]} {[]}Money {[]} {[]}</t>
+    <t>unsignedInt
+stringMoney</t>
   </si>
   <si>
     <t>Benefits allowed</t>
@@ -3050,8 +3041,8 @@
     <t>ExplanationOfBenefit.benefitBalance.financial.used[x]</t>
   </si>
   <si>
-    <t>unsignedInt {[]} {[]}
-Money {[]} {[]}</t>
+    <t>unsignedInt
+Money</t>
   </si>
   <si>
     <t>Benefits used</t>
@@ -3113,67 +3104,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -3209,7 +3200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN410"/>
+  <dimension ref="A1:AM410"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -14774,7 +14765,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14797,7 +14788,7 @@
         <v>43</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>384</v>
@@ -15112,7 +15103,7 @@
         <v>355</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>43</v>
@@ -15710,7 +15701,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>43</v>
@@ -15845,7 +15836,7 @@
       </c>
       <c r="X113" s="2"/>
       <c r="Y113" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>43</v>
@@ -16230,7 +16221,7 @@
         <v>355</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>43</v>
@@ -16828,7 +16819,7 @@
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R122" t="s" s="2">
         <v>43</v>
@@ -16963,7 +16954,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>43</v>
@@ -17348,7 +17339,7 @@
         <v>355</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>43</v>
@@ -17946,7 +17937,7 @@
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R132" t="s" s="2">
         <v>43</v>
@@ -18081,7 +18072,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18466,7 +18457,7 @@
         <v>355</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>43</v>
@@ -19064,7 +19055,7 @@
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R142" t="s" s="2">
         <v>43</v>
@@ -19199,7 +19190,7 @@
       </c>
       <c r="X143" s="2"/>
       <c r="Y143" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>43</v>
@@ -19584,7 +19575,7 @@
         <v>355</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>43</v>
@@ -20182,7 +20173,7 @@
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R152" t="s" s="2">
         <v>43</v>
@@ -20317,7 +20308,7 @@
       </c>
       <c r="X153" s="2"/>
       <c r="Y153" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>43</v>
@@ -20702,7 +20693,7 @@
         <v>355</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>43</v>
@@ -21300,7 +21291,7 @@
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>43</v>
@@ -21435,7 +21426,7 @@
       </c>
       <c r="X163" s="2"/>
       <c r="Y163" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>43</v>
@@ -21820,7 +21811,7 @@
         <v>355</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>43</v>
@@ -22418,7 +22409,7 @@
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R172" t="s" s="2">
         <v>43</v>
@@ -22553,7 +22544,7 @@
       </c>
       <c r="X173" s="2"/>
       <c r="Y173" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
@@ -22938,7 +22929,7 @@
         <v>355</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>43</v>
@@ -23536,7 +23527,7 @@
       </c>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R182" t="s" s="2">
         <v>43</v>
@@ -23671,7 +23662,7 @@
       </c>
       <c r="X183" s="2"/>
       <c r="Y183" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Z183" t="s" s="2">
         <v>43</v>
@@ -24056,7 +24047,7 @@
         <v>355</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>43</v>
@@ -24654,7 +24645,7 @@
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R192" t="s" s="2">
         <v>43</v>
@@ -25173,7 +25164,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25199,14 +25190,14 @@
         <v>210</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L197" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25255,7 +25246,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25284,7 +25275,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25393,7 +25384,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25504,7 +25495,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25617,7 +25608,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25643,16 +25634,16 @@
         <v>327</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L201" t="s" s="2">
+      <c r="M201" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25701,7 +25692,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>50</v>
@@ -25730,7 +25721,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25756,14 +25747,14 @@
         <v>123</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L202" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25791,11 +25782,11 @@
         <v>139</v>
       </c>
       <c r="X202" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y202" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Y202" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
       </c>
@@ -25812,7 +25803,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>50</v>
@@ -25841,7 +25832,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25867,16 +25858,16 @@
         <v>123</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -25905,7 +25896,7 @@
       </c>
       <c r="X203" s="2"/>
       <c r="Y203" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
@@ -25923,7 +25914,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -25952,7 +25943,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25978,14 +25969,14 @@
         <v>123</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26013,10 +26004,10 @@
         <v>139</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>43</v>
@@ -26034,7 +26025,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26063,7 +26054,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26089,16 +26080,16 @@
         <v>123</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="N205" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26126,10 +26117,10 @@
         <v>139</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>43</v>
@@ -26147,7 +26138,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26176,7 +26167,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26202,14 +26193,14 @@
         <v>210</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26258,7 +26249,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26287,7 +26278,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26396,7 +26387,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26507,7 +26498,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26620,7 +26611,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26646,14 +26637,14 @@
         <v>327</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26702,7 +26693,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>50</v>
@@ -26731,7 +26722,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26757,14 +26748,14 @@
         <v>123</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26792,10 +26783,10 @@
         <v>139</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
@@ -26813,7 +26804,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26842,7 +26833,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26868,14 +26859,14 @@
         <v>164</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26924,7 +26915,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -26953,7 +26944,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26979,14 +26970,14 @@
         <v>123</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27014,10 +27005,10 @@
         <v>139</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>43</v>
@@ -27035,7 +27026,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>50</v>
@@ -27064,7 +27055,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27087,17 +27078,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27146,7 +27137,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27175,7 +27166,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27201,14 +27192,14 @@
         <v>327</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27257,7 +27248,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27286,7 +27277,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27312,16 +27303,16 @@
         <v>210</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27358,7 +27349,7 @@
         <v>43</v>
       </c>
       <c r="AA216" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AB216" s="2"/>
       <c r="AC216" t="s" s="2">
@@ -27368,7 +27359,7 @@
         <v>361</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>50</v>
@@ -27389,7 +27380,7 @@
         <v>43</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>43</v>
@@ -27397,7 +27388,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27506,7 +27497,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27617,7 +27608,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27730,7 +27721,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27756,23 +27747,23 @@
         <v>338</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N220" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="R220" t="s" s="2">
         <v>43</v>
@@ -27814,7 +27805,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -27843,7 +27834,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27866,17 +27857,17 @@
         <v>51</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27925,7 +27916,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>50</v>
@@ -27954,7 +27945,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27980,16 +27971,16 @@
         <v>217</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N222" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28038,7 +28029,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28067,10 +28058,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C223" t="s" s="2">
         <v>43</v>
@@ -28095,16 +28086,16 @@
         <v>210</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N223" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28153,7 +28144,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>50</v>
@@ -28174,7 +28165,7 @@
         <v>43</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>43</v>
@@ -28182,7 +28173,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28291,7 +28282,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28402,7 +28393,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28515,7 +28506,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28541,23 +28532,23 @@
         <v>338</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N227" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="R227" t="s" s="2">
         <v>43</v>
@@ -28599,7 +28590,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>50</v>
@@ -28628,7 +28619,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28651,17 +28642,17 @@
         <v>51</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28710,7 +28701,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>50</v>
@@ -28739,7 +28730,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28765,16 +28756,16 @@
         <v>217</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N229" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28823,7 +28814,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -28852,7 +28843,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -28878,14 +28869,14 @@
         <v>210</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -28934,7 +28925,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -28963,7 +28954,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29072,7 +29063,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29183,7 +29174,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29296,7 +29287,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29319,19 +29310,19 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N234" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29380,7 +29371,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29409,7 +29400,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29435,14 +29426,14 @@
         <v>123</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29470,10 +29461,10 @@
         <v>129</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29491,7 +29482,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29520,7 +29511,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29543,17 +29534,17 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29602,7 +29593,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29631,7 +29622,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29657,14 +29648,14 @@
         <v>210</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29713,7 +29704,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29742,7 +29733,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29851,7 +29842,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29962,7 +29953,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30075,7 +30066,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30101,14 +30092,14 @@
         <v>327</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30157,7 +30148,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>50</v>
@@ -30186,7 +30177,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30212,14 +30203,14 @@
         <v>327</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30268,7 +30259,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30297,7 +30288,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30323,14 +30314,14 @@
         <v>327</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30379,7 +30370,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30408,7 +30399,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30434,14 +30425,14 @@
         <v>327</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30490,7 +30481,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30519,7 +30510,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30545,14 +30536,14 @@
         <v>327</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30601,7 +30592,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30630,7 +30621,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30656,14 +30647,14 @@
         <v>123</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30692,7 +30683,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
@@ -30710,7 +30701,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30739,7 +30730,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30765,16 +30756,16 @@
         <v>123</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N247" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30802,10 +30793,10 @@
         <v>139</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Z247" t="s" s="2">
         <v>43</v>
@@ -30823,7 +30814,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30852,11 +30843,11 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30878,16 +30869,16 @@
         <v>123</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N248" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L248" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30916,7 +30907,7 @@
       </c>
       <c r="X248" s="2"/>
       <c r="Y248" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -30934,7 +30925,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>50</v>
@@ -30963,7 +30954,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -30989,16 +30980,16 @@
         <v>123</v>
       </c>
       <c r="K249" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N249" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="L249" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M249" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31026,10 +31017,10 @@
         <v>139</v>
       </c>
       <c r="X249" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Z249" t="s" s="2">
         <v>43</v>
@@ -31047,7 +31038,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31076,7 +31067,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31102,16 +31093,16 @@
         <v>123</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N250" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31139,10 +31130,10 @@
         <v>139</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31160,7 +31151,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31189,7 +31180,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31215,14 +31206,14 @@
         <v>383</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31271,7 +31262,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31300,7 +31291,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31323,17 +31314,17 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31361,10 +31352,10 @@
         <v>139</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31382,7 +31373,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31411,7 +31402,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31434,17 +31425,17 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31493,7 +31484,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31522,7 +31513,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31545,17 +31536,17 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31604,7 +31595,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31633,7 +31624,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31656,19 +31647,19 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="K255" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L255" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M255" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K255" t="s" s="2">
+      <c r="N255" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L255" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31717,7 +31708,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31746,7 +31737,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31769,19 +31760,19 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L256" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M256" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N256" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M256" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N256" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31830,7 +31821,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31859,7 +31850,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31882,17 +31873,17 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -31941,7 +31932,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -31970,7 +31961,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -31996,16 +31987,16 @@
         <v>123</v>
       </c>
       <c r="K258" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L258" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M258" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N258" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L258" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="M258" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N258" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32033,10 +32024,10 @@
         <v>139</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
@@ -32054,7 +32045,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32083,7 +32074,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32109,14 +32100,14 @@
         <v>123</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32144,10 +32135,10 @@
         <v>139</v>
       </c>
       <c r="X259" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="Y259" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32165,7 +32156,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32194,7 +32185,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32217,17 +32208,17 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32276,7 +32267,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32305,7 +32296,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32331,14 +32322,14 @@
         <v>327</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32387,7 +32378,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32416,7 +32407,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32442,14 +32433,14 @@
         <v>210</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32496,7 +32487,7 @@
         <v>361</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32525,7 +32516,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32634,7 +32625,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32745,7 +32736,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32858,7 +32849,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32884,16 +32875,16 @@
         <v>123</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L266" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M266" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N266" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -32921,10 +32912,10 @@
         <v>139</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
@@ -32942,7 +32933,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>50</v>
@@ -32971,7 +32962,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32997,16 +32988,16 @@
         <v>123</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L267" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M267" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="N267" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M267" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33034,10 +33025,10 @@
         <v>139</v>
       </c>
       <c r="X267" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
@@ -33055,7 +33046,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33084,7 +33075,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33107,19 +33098,19 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L268" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M268" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="N268" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M268" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33168,7 +33159,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33197,7 +33188,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33220,19 +33211,19 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L269" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M269" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N269" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L269" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33281,7 +33272,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33310,10 +33301,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C270" t="s" s="2">
         <v>43</v>
@@ -33338,14 +33329,14 @@
         <v>210</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33394,7 +33385,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33423,7 +33414,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33532,7 +33523,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33643,7 +33634,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33756,7 +33747,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33782,16 +33773,16 @@
         <v>123</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L274" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M274" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N274" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -33820,7 +33811,7 @@
       </c>
       <c r="X274" s="2"/>
       <c r="Y274" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>43</v>
@@ -33838,7 +33829,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>50</v>
@@ -33867,7 +33858,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -33893,16 +33884,16 @@
         <v>123</v>
       </c>
       <c r="K275" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L275" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M275" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="N275" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L275" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M275" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -33930,10 +33921,10 @@
         <v>139</v>
       </c>
       <c r="X275" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="Z275" t="s" s="2">
         <v>43</v>
@@ -33951,7 +33942,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -33980,7 +33971,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34003,19 +33994,19 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L276" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M276" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="N276" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M276" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34064,7 +34055,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34093,7 +34084,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34116,19 +34107,19 @@
         <v>43</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L277" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M277" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N277" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34177,7 +34168,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34206,10 +34197,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C278" t="s" s="2">
         <v>43</v>
@@ -34234,14 +34225,14 @@
         <v>210</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34290,7 +34281,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34319,7 +34310,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34428,7 +34419,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34539,7 +34530,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34652,7 +34643,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34678,23 +34669,23 @@
         <v>123</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M282" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N282" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="R282" t="s" s="2">
         <v>43</v>
@@ -34715,10 +34706,10 @@
         <v>139</v>
       </c>
       <c r="X282" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
@@ -34736,7 +34727,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>50</v>
@@ -34765,7 +34756,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34791,16 +34782,16 @@
         <v>123</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L283" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M283" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="N283" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L283" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M283" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34829,7 +34820,7 @@
       </c>
       <c r="X283" s="2"/>
       <c r="Y283" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
@@ -34847,7 +34838,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34876,7 +34867,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34899,19 +34890,19 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L284" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M284" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="N284" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M284" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -34960,7 +34951,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -34989,7 +34980,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35012,19 +35003,19 @@
         <v>43</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K285" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L285" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M285" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N285" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M285" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35073,7 +35064,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35102,7 +35093,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35128,10 +35119,10 @@
         <v>210</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
@@ -35182,7 +35173,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35211,7 +35202,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35320,7 +35311,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35431,7 +35422,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35544,7 +35535,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35570,14 +35561,14 @@
         <v>327</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35626,7 +35617,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>50</v>
@@ -35655,7 +35646,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35681,14 +35672,14 @@
         <v>123</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35716,10 +35707,10 @@
         <v>139</v>
       </c>
       <c r="X291" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="Z291" t="s" s="2">
         <v>43</v>
@@ -35737,7 +35728,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -35766,7 +35757,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -35792,16 +35783,16 @@
         <v>123</v>
       </c>
       <c r="K292" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L292" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M292" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="N292" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L292" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M292" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -35829,10 +35820,10 @@
         <v>139</v>
       </c>
       <c r="X292" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Z292" t="s" s="2">
         <v>43</v>
@@ -35850,7 +35841,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -35879,11 +35870,11 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35905,16 +35896,16 @@
         <v>123</v>
       </c>
       <c r="K293" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L293" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M293" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N293" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L293" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M293" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -35942,10 +35933,10 @@
         <v>139</v>
       </c>
       <c r="X293" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Y293" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>43</v>
@@ -35963,7 +35954,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>50</v>
@@ -35992,7 +35983,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36018,16 +36009,16 @@
         <v>123</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36055,10 +36046,10 @@
         <v>139</v>
       </c>
       <c r="X294" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Z294" t="s" s="2">
         <v>43</v>
@@ -36076,7 +36067,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36105,7 +36096,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36131,16 +36122,16 @@
         <v>123</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L295" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M295" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N295" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L295" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M295" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N295" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36168,10 +36159,10 @@
         <v>139</v>
       </c>
       <c r="X295" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Y295" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Z295" t="s" s="2">
         <v>43</v>
@@ -36189,7 +36180,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36218,7 +36209,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36241,17 +36232,17 @@
         <v>43</v>
       </c>
       <c r="J296" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36300,7 +36291,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36329,7 +36320,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36352,17 +36343,17 @@
         <v>43</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36411,7 +36402,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36440,7 +36431,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36463,19 +36454,19 @@
         <v>43</v>
       </c>
       <c r="J298" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="K298" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L298" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M298" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K298" t="s" s="2">
+      <c r="N298" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L298" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M298" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36524,7 +36515,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36553,7 +36544,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36576,19 +36567,19 @@
         <v>43</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K299" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L299" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M299" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N299" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L299" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M299" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36637,7 +36628,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36666,7 +36657,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36689,17 +36680,17 @@
         <v>43</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -36748,7 +36739,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -36777,7 +36768,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -36803,14 +36794,14 @@
         <v>327</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -36859,7 +36850,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -36888,7 +36879,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -36914,10 +36905,10 @@
         <v>43</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -36968,7 +36959,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -36997,7 +36988,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37023,10 +37014,10 @@
         <v>210</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
@@ -37077,7 +37068,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37106,7 +37097,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37215,7 +37206,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37326,7 +37317,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37439,7 +37430,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37465,14 +37456,14 @@
         <v>327</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37521,7 +37512,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>50</v>
@@ -37550,7 +37541,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37576,14 +37567,14 @@
         <v>123</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37611,10 +37602,10 @@
         <v>139</v>
       </c>
       <c r="X308" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Y308" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="Z308" t="s" s="2">
         <v>43</v>
@@ -37632,7 +37623,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37661,7 +37652,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37687,16 +37678,16 @@
         <v>123</v>
       </c>
       <c r="K309" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L309" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M309" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N309" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L309" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M309" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N309" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -37724,10 +37715,10 @@
         <v>139</v>
       </c>
       <c r="X309" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Y309" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
@@ -37745,7 +37736,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -37774,11 +37765,11 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37800,16 +37791,16 @@
         <v>123</v>
       </c>
       <c r="K310" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L310" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M310" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N310" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L310" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M310" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -37837,10 +37828,10 @@
         <v>139</v>
       </c>
       <c r="X310" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Z310" t="s" s="2">
         <v>43</v>
@@ -37858,7 +37849,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>50</v>
@@ -37887,7 +37878,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -37913,16 +37904,16 @@
         <v>123</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -37950,10 +37941,10 @@
         <v>139</v>
       </c>
       <c r="X311" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Z311" t="s" s="2">
         <v>43</v>
@@ -37971,7 +37962,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38000,7 +37991,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38026,16 +38017,16 @@
         <v>123</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N312" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38063,10 +38054,10 @@
         <v>139</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>43</v>
@@ -38084,7 +38075,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38113,7 +38104,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38136,17 +38127,17 @@
         <v>43</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38195,7 +38186,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38224,7 +38215,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38247,17 +38238,17 @@
         <v>43</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38306,7 +38297,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38335,7 +38326,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38358,19 +38349,19 @@
         <v>43</v>
       </c>
       <c r="J315" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="K315" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L315" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M315" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K315" t="s" s="2">
+      <c r="N315" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L315" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M315" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38419,7 +38410,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38448,7 +38439,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38471,19 +38462,19 @@
         <v>43</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N316" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L316" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M316" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38532,7 +38523,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38561,7 +38552,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38584,17 +38575,17 @@
         <v>43</v>
       </c>
       <c r="J317" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38643,7 +38634,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38672,7 +38663,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38698,14 +38689,14 @@
         <v>327</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -38754,7 +38745,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -38783,7 +38774,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -38809,10 +38800,10 @@
         <v>43</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
@@ -38863,7 +38854,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -38892,7 +38883,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -38918,14 +38909,14 @@
         <v>210</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -38974,7 +38965,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39003,7 +38994,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39112,7 +39103,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39223,7 +39214,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39336,7 +39327,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39362,14 +39353,14 @@
         <v>327</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39418,7 +39409,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39447,7 +39438,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39473,14 +39464,14 @@
         <v>327</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39529,7 +39520,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39558,7 +39549,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39584,14 +39575,14 @@
         <v>327</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39640,7 +39631,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39669,7 +39660,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39695,14 +39686,14 @@
         <v>332</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -39751,7 +39742,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -39780,11 +39771,11 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39806,16 +39797,16 @@
         <v>123</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L328" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M328" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N328" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M328" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N328" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -39843,10 +39834,10 @@
         <v>139</v>
       </c>
       <c r="X328" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Y328" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Z328" t="s" s="2">
         <v>43</v>
@@ -39864,7 +39855,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>50</v>
@@ -39893,7 +39884,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -39919,16 +39910,16 @@
         <v>123</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -39956,10 +39947,10 @@
         <v>139</v>
       </c>
       <c r="X329" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Y329" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -39977,7 +39968,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40006,7 +39997,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40032,16 +40023,16 @@
         <v>123</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L330" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M330" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N330" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L330" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M330" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N330" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40069,10 +40060,10 @@
         <v>139</v>
       </c>
       <c r="X330" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -40090,7 +40081,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40119,7 +40110,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40145,14 +40136,14 @@
         <v>383</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40201,7 +40192,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40230,7 +40221,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40253,17 +40244,17 @@
         <v>43</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40291,10 +40282,10 @@
         <v>139</v>
       </c>
       <c r="X332" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Y332" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="Z332" t="s" s="2">
         <v>43</v>
@@ -40312,7 +40303,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40341,7 +40332,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40364,17 +40355,17 @@
         <v>43</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40423,7 +40414,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40452,7 +40443,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40475,17 +40466,17 @@
         <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M334" s="2"/>
       <c r="N334" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40534,7 +40525,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40563,7 +40554,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40586,19 +40577,19 @@
         <v>43</v>
       </c>
       <c r="J335" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="K335" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L335" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M335" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K335" t="s" s="2">
+      <c r="N335" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L335" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M335" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40647,7 +40638,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40676,7 +40667,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40699,19 +40690,19 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L336" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M336" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N336" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L336" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M336" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -40760,7 +40751,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -40789,7 +40780,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -40815,16 +40806,16 @@
         <v>123</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L337" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M337" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="N337" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L337" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="M337" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -40852,10 +40843,10 @@
         <v>139</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -40873,7 +40864,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -40902,7 +40893,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -40928,14 +40919,14 @@
         <v>123</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M338" s="2"/>
       <c r="N338" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -40963,10 +40954,10 @@
         <v>139</v>
       </c>
       <c r="X338" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="Y338" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -40984,7 +40975,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41013,7 +41004,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41039,14 +41030,14 @@
         <v>327</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M339" s="2"/>
       <c r="N339" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41095,7 +41086,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41124,7 +41115,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41150,10 +41141,10 @@
         <v>43</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
@@ -41204,7 +41195,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41233,7 +41224,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41259,10 +41250,10 @@
         <v>210</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -41313,7 +41304,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41342,7 +41333,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41451,7 +41442,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41562,7 +41553,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41675,11 +41666,11 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -41701,16 +41692,16 @@
         <v>123</v>
       </c>
       <c r="K345" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L345" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M345" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N345" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L345" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M345" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -41738,10 +41729,10 @@
         <v>139</v>
       </c>
       <c r="X345" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Y345" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Z345" t="s" s="2">
         <v>43</v>
@@ -41759,7 +41750,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>50</v>
@@ -41788,7 +41779,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -41814,16 +41805,16 @@
         <v>123</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -41851,10 +41842,10 @@
         <v>139</v>
       </c>
       <c r="X346" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -41872,7 +41863,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -41901,7 +41892,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -41924,17 +41915,17 @@
         <v>43</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -41983,7 +41974,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42012,7 +42003,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42035,17 +42026,17 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42094,7 +42085,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42123,7 +42114,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42146,19 +42137,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M349" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K349" t="s" s="2">
+      <c r="N349" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L349" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M349" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N349" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42207,7 +42198,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42236,7 +42227,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42259,19 +42250,19 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K350" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N350" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L350" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M350" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42320,7 +42311,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42349,7 +42340,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42375,14 +42366,14 @@
         <v>327</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42431,7 +42422,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42460,7 +42451,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42486,10 +42477,10 @@
         <v>43</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
@@ -42540,7 +42531,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42569,7 +42560,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42595,10 +42586,10 @@
         <v>210</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -42649,7 +42640,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42678,7 +42669,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -42787,7 +42778,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -42898,7 +42889,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43011,11 +43002,11 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -43037,16 +43028,16 @@
         <v>123</v>
       </c>
       <c r="K357" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N357" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L357" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M357" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N357" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43074,10 +43065,10 @@
         <v>139</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43095,7 +43086,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>50</v>
@@ -43124,7 +43115,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43150,16 +43141,16 @@
         <v>123</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43187,10 +43178,10 @@
         <v>139</v>
       </c>
       <c r="X358" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Y358" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Z358" t="s" s="2">
         <v>43</v>
@@ -43208,7 +43199,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43237,7 +43228,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43260,17 +43251,17 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M359" s="2"/>
       <c r="N359" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43319,7 +43310,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43348,7 +43339,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43371,17 +43362,17 @@
         <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43430,7 +43421,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43459,7 +43450,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43482,19 +43473,19 @@
         <v>43</v>
       </c>
       <c r="J361" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L361" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M361" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K361" t="s" s="2">
+      <c r="N361" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L361" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M361" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N361" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43543,7 +43534,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43572,7 +43563,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43595,19 +43586,19 @@
         <v>43</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N362" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L362" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M362" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43656,7 +43647,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43685,7 +43676,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43711,14 +43702,14 @@
         <v>327</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -43767,7 +43758,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -43796,7 +43787,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -43822,10 +43813,10 @@
         <v>43</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -43876,7 +43867,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -43905,7 +43896,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -43931,14 +43922,14 @@
         <v>43</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="M365" s="2"/>
       <c r="N365" t="s" s="2">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -43987,7 +43978,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44016,7 +44007,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44042,16 +44033,16 @@
         <v>210</v>
       </c>
       <c r="K366" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="N366" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="L366" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="M366" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="N366" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44100,7 +44091,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44129,7 +44120,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44238,7 +44229,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44349,7 +44340,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44462,7 +44453,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44488,16 +44479,16 @@
         <v>123</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44526,7 +44517,7 @@
       </c>
       <c r="X370" s="2"/>
       <c r="Y370" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44544,7 +44535,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>50</v>
@@ -44573,7 +44564,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44596,17 +44587,17 @@
         <v>51</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44655,7 +44646,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>50</v>
@@ -44684,7 +44675,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -44710,14 +44701,14 @@
         <v>210</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="M372" s="2"/>
       <c r="N372" t="s" s="2">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -44766,7 +44757,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -44795,7 +44786,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -44904,7 +44895,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45015,7 +45006,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45128,7 +45119,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45154,14 +45145,14 @@
         <v>123</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="M376" s="2"/>
       <c r="N376" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45189,10 +45180,10 @@
         <v>139</v>
       </c>
       <c r="X376" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Y376" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45210,7 +45201,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45239,7 +45230,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45262,19 +45253,19 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K377" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="N377" t="s" s="2">
         <v>856</v>
-      </c>
-      <c r="L377" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="M377" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="N377" t="s" s="2">
-        <v>859</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45323,7 +45314,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
@@ -45352,7 +45343,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45378,14 +45369,14 @@
         <v>123</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="M378" s="2"/>
       <c r="N378" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45414,7 +45405,7 @@
       </c>
       <c r="X378" s="2"/>
       <c r="Y378" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Z378" t="s" s="2">
         <v>43</v>
@@ -45432,7 +45423,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45461,7 +45452,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45484,17 +45475,17 @@
         <v>43</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45543,7 +45534,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45572,7 +45563,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45595,17 +45586,17 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45654,7 +45645,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45683,7 +45674,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45709,16 +45700,16 @@
         <v>106</v>
       </c>
       <c r="K381" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="N381" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="L381" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="M381" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="N381" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -45767,7 +45758,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -45796,7 +45787,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -45822,16 +45813,16 @@
         <v>123</v>
       </c>
       <c r="K382" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="N382" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="L382" t="s" s="2">
-        <v>879</v>
-      </c>
-      <c r="M382" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -45859,10 +45850,10 @@
         <v>139</v>
       </c>
       <c r="X382" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="Y382" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
@@ -45880,7 +45871,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -45909,7 +45900,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -45932,19 +45923,19 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="M383" t="s" s="2">
         <v>885</v>
       </c>
-      <c r="K383" t="s" s="2">
+      <c r="N383" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="L383" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="M383" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="N383" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -45993,7 +45984,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46022,7 +46013,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46048,14 +46039,14 @@
         <v>210</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46104,7 +46095,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46133,7 +46124,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46242,7 +46233,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46353,7 +46344,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46466,7 +46457,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46492,14 +46483,14 @@
         <v>327</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" t="s" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
@@ -46548,7 +46539,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46577,7 +46568,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46603,14 +46594,14 @@
         <v>69</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="M389" s="2"/>
       <c r="N389" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -46638,10 +46629,10 @@
         <v>117</v>
       </c>
       <c r="X389" t="s" s="2">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="Y389" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="Z389" t="s" s="2">
         <v>43</v>
@@ -46659,7 +46650,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -46688,7 +46679,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -46714,14 +46705,14 @@
         <v>217</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="M390" s="2"/>
       <c r="N390" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -46770,7 +46761,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -46799,7 +46790,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -46825,16 +46816,16 @@
         <v>123</v>
       </c>
       <c r="K391" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="N391" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="L391" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="M391" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="N391" t="s" s="2">
-        <v>915</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -46883,7 +46874,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -46912,7 +46903,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -46938,16 +46929,16 @@
         <v>157</v>
       </c>
       <c r="K392" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="N392" t="s" s="2">
         <v>917</v>
-      </c>
-      <c r="L392" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="M392" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="N392" t="s" s="2">
-        <v>920</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -46996,7 +46987,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47025,7 +47016,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47051,10 +47042,10 @@
         <v>210</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
@@ -47105,7 +47096,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47134,7 +47125,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47243,7 +47234,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47354,7 +47345,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47467,7 +47458,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47493,16 +47484,16 @@
         <v>123</v>
       </c>
       <c r="K397" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="O397" t="s" s="2">
         <v>43</v>
@@ -47530,10 +47521,10 @@
         <v>139</v>
       </c>
       <c r="X397" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Y397" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Z397" t="s" s="2">
         <v>43</v>
@@ -47551,7 +47542,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>50</v>
@@ -47580,7 +47571,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47606,14 +47597,14 @@
         <v>338</v>
       </c>
       <c r="K398" t="s" s="2">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="M398" s="2"/>
       <c r="N398" t="s" s="2">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="O398" t="s" s="2">
         <v>43</v>
@@ -47662,7 +47653,7 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
@@ -47691,7 +47682,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -47717,16 +47708,16 @@
         <v>217</v>
       </c>
       <c r="K399" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="N399" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="L399" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="M399" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="N399" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -47775,7 +47766,7 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
@@ -47804,7 +47795,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -47830,16 +47821,16 @@
         <v>217</v>
       </c>
       <c r="K400" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="N400" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="L400" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="M400" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="N400" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -47888,7 +47879,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -47917,7 +47908,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -47943,14 +47934,14 @@
         <v>123</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -47978,10 +47969,10 @@
         <v>139</v>
       </c>
       <c r="X401" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="Y401" t="s" s="2">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
@@ -47999,7 +47990,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48028,7 +48019,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48054,14 +48045,14 @@
         <v>123</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="M402" s="2"/>
       <c r="N402" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48089,10 +48080,10 @@
         <v>139</v>
       </c>
       <c r="X402" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Y402" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="Z402" t="s" s="2">
         <v>43</v>
@@ -48110,7 +48101,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48139,7 +48130,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48165,14 +48156,14 @@
         <v>123</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="M403" s="2"/>
       <c r="N403" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48200,10 +48191,10 @@
         <v>139</v>
       </c>
       <c r="X403" t="s" s="2">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="Y403" t="s" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="Z403" t="s" s="2">
         <v>43</v>
@@ -48221,7 +48212,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48250,7 +48241,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48276,10 +48267,10 @@
         <v>210</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
@@ -48330,7 +48321,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48359,7 +48350,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48468,7 +48459,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48579,7 +48570,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48692,7 +48683,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -48718,16 +48709,16 @@
         <v>123</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="O408" t="s" s="2">
         <v>43</v>
@@ -48755,10 +48746,10 @@
         <v>139</v>
       </c>
       <c r="X408" t="s" s="2">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="Y408" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="Z408" t="s" s="2">
         <v>43</v>
@@ -48776,7 +48767,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>50</v>
@@ -48805,7 +48796,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -48828,17 +48819,17 @@
         <v>43</v>
       </c>
       <c r="J409" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="K409" t="s" s="2">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="M409" s="2"/>
       <c r="N409" t="s" s="2">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -48887,7 +48878,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
@@ -48916,7 +48907,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -48939,17 +48930,17 @@
         <v>43</v>
       </c>
       <c r="J410" t="s" s="2">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="M410" s="2"/>
       <c r="N410" t="s" s="2">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -48998,7 +48989,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>

--- a/output/CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -4727,7 +4727,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
@@ -5288,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>43</v>
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -5734,7 +5734,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -5847,7 +5847,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -6741,7 +6741,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>43</v>
@@ -6852,7 +6852,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>43</v>
@@ -27186,7 +27186,7 @@
         <v>41</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>43</v>
@@ -28863,7 +28863,7 @@
         <v>41</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>43</v>
@@ -31087,7 +31087,7 @@
         <v>41</v>
       </c>
       <c r="F250" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>43</v>
@@ -31644,7 +31644,7 @@
         <v>41</v>
       </c>
       <c r="F255" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G255" t="s" s="2">
         <v>43</v>
@@ -31870,7 +31870,7 @@
         <v>41</v>
       </c>
       <c r="F257" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G257" t="s" s="2">
         <v>43</v>
@@ -35111,7 +35111,7 @@
         <v>41</v>
       </c>
       <c r="F286" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>43</v>
@@ -38901,7 +38901,7 @@
         <v>41</v>
       </c>
       <c r="F320" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G320" t="s" s="2">
         <v>43</v>
@@ -45805,7 +45805,7 @@
         <v>41</v>
       </c>
       <c r="F382" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G382" t="s" s="2">
         <v>43</v>
@@ -45918,7 +45918,7 @@
         <v>41</v>
       </c>
       <c r="F383" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G383" t="s" s="2">
         <v>43</v>
@@ -46921,7 +46921,7 @@
         <v>41</v>
       </c>
       <c r="F392" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G392" t="s" s="2">
         <v>43</v>
@@ -47034,7 +47034,7 @@
         <v>41</v>
       </c>
       <c r="F393" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G393" t="s" s="2">
         <v>43</v>

--- a/output/CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14475" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14462" uniqueCount="982">
   <si>
     <t>Path</t>
   </si>
@@ -1048,7 +1048,7 @@
     <t>ExplanationOfBenefit.careTeam.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-bb-practitionerrole)
 </t>
   </si>
   <si>
@@ -1264,12 +1264,6 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>The valuset used for additional information category codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/carin/ValueSet/carin-bb-networkcontractingstatus</t>
   </si>
   <si>
@@ -2453,6 +2447,10 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.addItem.provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
   </si>
   <si>
     <t>Authorized providers</t>
@@ -4379,7 +4377,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>107</v>
       </c>
@@ -4395,7 +4393,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>43</v>
@@ -5049,7 +5047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>157</v>
       </c>
@@ -5065,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>43</v>
@@ -5947,7 +5945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>210</v>
       </c>
@@ -5963,7 +5961,7 @@
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>43</v>
@@ -6952,7 +6950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>255</v>
       </c>
@@ -6968,7 +6966,7 @@
         <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>43</v>
@@ -7408,7 +7406,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>50</v>
@@ -7519,7 +7517,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>50</v>
@@ -8518,7 +8516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>318</v>
       </c>
@@ -8534,7 +8532,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>43</v>
@@ -9184,7 +9182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>336</v>
       </c>
@@ -9200,7 +9198,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -9307,7 +9305,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>50</v>
@@ -9535,7 +9533,7 @@
         <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>43</v>
@@ -10185,7 +10183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>374</v>
       </c>
@@ -10201,7 +10199,7 @@
         <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>43</v>
@@ -10298,7 +10296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>380</v>
       </c>
@@ -10314,7 +10312,7 @@
         <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>43</v>
@@ -10407,7 +10405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>384</v>
       </c>
@@ -10423,7 +10421,7 @@
         <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>43</v>
@@ -10633,7 +10631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>354</v>
       </c>
@@ -10651,7 +10649,7 @@
         <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>43</v>
@@ -11254,13 +11252,11 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -11305,7 +11301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>374</v>
       </c>
@@ -11321,7 +11317,7 @@
         <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>43</v>
@@ -11371,7 +11367,7 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>43</v>
@@ -11416,7 +11412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>380</v>
       </c>
@@ -11432,7 +11428,7 @@
         <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>43</v>
@@ -11525,7 +11521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>384</v>
       </c>
@@ -11541,7 +11537,7 @@
         <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>43</v>
@@ -11751,12 +11747,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>43</v>
@@ -11769,7 +11765,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>43</v>
@@ -12354,7 +12350,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>43</v>
@@ -12372,13 +12368,11 @@
         <v>43</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
@@ -12423,7 +12417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>374</v>
       </c>
@@ -12439,7 +12433,7 @@
         <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>43</v>
@@ -12489,7 +12483,7 @@
       </c>
       <c r="X83" s="2"/>
       <c r="Y83" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>43</v>
@@ -12534,7 +12528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>380</v>
       </c>
@@ -12550,7 +12544,7 @@
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>43</v>
@@ -12643,7 +12637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>384</v>
       </c>
@@ -12659,7 +12653,7 @@
         <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>43</v>
@@ -12869,12 +12863,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>43</v>
@@ -12887,7 +12881,7 @@
         <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>43</v>
@@ -13472,7 +13466,7 @@
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>43</v>
@@ -13490,13 +13484,11 @@
         <v>43</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -13541,7 +13533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>374</v>
       </c>
@@ -13557,7 +13549,7 @@
         <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>43</v>
@@ -13607,7 +13599,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>43</v>
@@ -13652,7 +13644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>380</v>
       </c>
@@ -13668,7 +13660,7 @@
         <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>43</v>
@@ -13761,7 +13753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>384</v>
       </c>
@@ -13777,7 +13769,7 @@
         <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>43</v>
@@ -13987,12 +13979,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>43</v>
@@ -14005,7 +13997,7 @@
         <v>50</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>43</v>
@@ -14590,7 +14582,7 @@
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>43</v>
@@ -14608,13 +14600,11 @@
         <v>43</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X102" s="2"/>
       <c r="Y102" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
@@ -14659,7 +14649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>374</v>
       </c>
@@ -14675,7 +14665,7 @@
         <v>50</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>43</v>
@@ -14772,7 +14762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>380</v>
       </c>
@@ -14788,7 +14778,7 @@
         <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>43</v>
@@ -14797,7 +14787,7 @@
         <v>43</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>382</v>
@@ -14881,7 +14871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>384</v>
       </c>
@@ -14897,7 +14887,7 @@
         <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>43</v>
@@ -15107,12 +15097,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>43</v>
@@ -15125,7 +15115,7 @@
         <v>50</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>43</v>
@@ -15710,7 +15700,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>43</v>
@@ -15728,13 +15718,11 @@
         <v>43</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -15779,7 +15767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>374</v>
       </c>
@@ -15795,7 +15783,7 @@
         <v>50</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>43</v>
@@ -15845,7 +15833,7 @@
       </c>
       <c r="X113" s="2"/>
       <c r="Y113" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>43</v>
@@ -15890,7 +15878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>380</v>
       </c>
@@ -15906,7 +15894,7 @@
         <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>43</v>
@@ -15999,7 +15987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>384</v>
       </c>
@@ -16015,7 +16003,7 @@
         <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>43</v>
@@ -16225,12 +16213,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>43</v>
@@ -16243,7 +16231,7 @@
         <v>50</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>43</v>
@@ -16828,7 +16816,7 @@
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="R122" t="s" s="2">
         <v>43</v>
@@ -16846,13 +16834,11 @@
         <v>43</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -16897,7 +16883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>374</v>
       </c>
@@ -16913,7 +16899,7 @@
         <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>43</v>
@@ -16963,7 +16949,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>43</v>
@@ -17008,7 +16994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>380</v>
       </c>
@@ -17024,7 +17010,7 @@
         <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>43</v>
@@ -17117,7 +17103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>384</v>
       </c>
@@ -17133,7 +17119,7 @@
         <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>43</v>
@@ -17343,12 +17329,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>43</v>
@@ -17361,7 +17347,7 @@
         <v>50</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>43</v>
@@ -17946,7 +17932,7 @@
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="R132" t="s" s="2">
         <v>43</v>
@@ -17964,13 +17950,11 @@
         <v>43</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X132" s="2"/>
       <c r="Y132" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>43</v>
@@ -18015,7 +17999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>374</v>
       </c>
@@ -18031,7 +18015,7 @@
         <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>43</v>
@@ -18081,7 +18065,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18126,7 +18110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>380</v>
       </c>
@@ -18142,7 +18126,7 @@
         <v>50</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>43</v>
@@ -18235,7 +18219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>384</v>
       </c>
@@ -18251,7 +18235,7 @@
         <v>50</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>43</v>
@@ -18461,12 +18445,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>43</v>
@@ -18479,7 +18463,7 @@
         <v>50</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>43</v>
@@ -19064,7 +19048,7 @@
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="R142" t="s" s="2">
         <v>43</v>
@@ -19082,13 +19066,11 @@
         <v>43</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X142" s="2"/>
       <c r="Y142" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>43</v>
@@ -19133,7 +19115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>374</v>
       </c>
@@ -19149,7 +19131,7 @@
         <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>43</v>
@@ -19199,7 +19181,7 @@
       </c>
       <c r="X143" s="2"/>
       <c r="Y143" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>43</v>
@@ -19244,7 +19226,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>380</v>
       </c>
@@ -19260,7 +19242,7 @@
         <v>50</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>43</v>
@@ -19353,7 +19335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>384</v>
       </c>
@@ -19369,7 +19351,7 @@
         <v>50</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>43</v>
@@ -19579,12 +19561,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>43</v>
@@ -19597,7 +19579,7 @@
         <v>50</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>43</v>
@@ -20182,7 +20164,7 @@
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="R152" t="s" s="2">
         <v>43</v>
@@ -20200,13 +20182,11 @@
         <v>43</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X152" s="2"/>
       <c r="Y152" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>43</v>
@@ -20251,7 +20231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>374</v>
       </c>
@@ -20267,7 +20247,7 @@
         <v>50</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>43</v>
@@ -20317,7 +20297,7 @@
       </c>
       <c r="X153" s="2"/>
       <c r="Y153" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>43</v>
@@ -20362,7 +20342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>380</v>
       </c>
@@ -20378,7 +20358,7 @@
         <v>50</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>43</v>
@@ -20471,7 +20451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>384</v>
       </c>
@@ -20487,7 +20467,7 @@
         <v>50</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>43</v>
@@ -20697,12 +20677,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>43</v>
@@ -20715,7 +20695,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>43</v>
@@ -21300,7 +21280,7 @@
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>43</v>
@@ -21318,13 +21298,11 @@
         <v>43</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X162" s="2"/>
       <c r="Y162" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>43</v>
@@ -21369,7 +21347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>374</v>
       </c>
@@ -21385,7 +21363,7 @@
         <v>50</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>43</v>
@@ -21435,7 +21413,7 @@
       </c>
       <c r="X163" s="2"/>
       <c r="Y163" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>43</v>
@@ -21480,7 +21458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>380</v>
       </c>
@@ -21496,7 +21474,7 @@
         <v>50</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>43</v>
@@ -21589,7 +21567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>384</v>
       </c>
@@ -21605,7 +21583,7 @@
         <v>50</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>43</v>
@@ -21815,12 +21793,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>43</v>
@@ -21833,7 +21811,7 @@
         <v>50</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>43</v>
@@ -22418,7 +22396,7 @@
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="R172" t="s" s="2">
         <v>43</v>
@@ -22436,13 +22414,11 @@
         <v>43</v>
       </c>
       <c r="W172" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X172" s="2"/>
       <c r="Y172" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -22487,7 +22463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>374</v>
       </c>
@@ -22503,7 +22479,7 @@
         <v>50</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>43</v>
@@ -22553,7 +22529,7 @@
       </c>
       <c r="X173" s="2"/>
       <c r="Y173" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
@@ -22598,7 +22574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>380</v>
       </c>
@@ -22614,7 +22590,7 @@
         <v>50</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>43</v>
@@ -22707,7 +22683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>384</v>
       </c>
@@ -22723,7 +22699,7 @@
         <v>50</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>43</v>
@@ -22933,12 +22909,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>43</v>
@@ -22951,7 +22927,7 @@
         <v>50</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>43</v>
@@ -23536,7 +23512,7 @@
       </c>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="R182" t="s" s="2">
         <v>43</v>
@@ -23554,13 +23530,11 @@
         <v>43</v>
       </c>
       <c r="W182" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X182" s="2"/>
       <c r="Y182" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z182" t="s" s="2">
         <v>43</v>
@@ -23605,7 +23579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
         <v>374</v>
       </c>
@@ -23621,7 +23595,7 @@
         <v>50</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>43</v>
@@ -23671,7 +23645,7 @@
       </c>
       <c r="X183" s="2"/>
       <c r="Y183" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z183" t="s" s="2">
         <v>43</v>
@@ -23716,7 +23690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
         <v>380</v>
       </c>
@@ -23732,7 +23706,7 @@
         <v>50</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>43</v>
@@ -23825,7 +23799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" hidden="true">
+    <row r="185">
       <c r="A185" t="s" s="2">
         <v>384</v>
       </c>
@@ -23841,7 +23815,7 @@
         <v>50</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>43</v>
@@ -24051,12 +24025,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>43</v>
@@ -24069,7 +24043,7 @@
         <v>50</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>43</v>
@@ -24654,7 +24628,7 @@
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="R192" t="s" s="2">
         <v>43</v>
@@ -24672,13 +24646,11 @@
         <v>43</v>
       </c>
       <c r="W192" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X192" s="2"/>
       <c r="Y192" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
@@ -24723,7 +24695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>374</v>
       </c>
@@ -24739,7 +24711,7 @@
         <v>50</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H193" t="s" s="2">
         <v>43</v>
@@ -24836,7 +24808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" hidden="true">
+    <row r="194">
       <c r="A194" t="s" s="2">
         <v>380</v>
       </c>
@@ -24852,7 +24824,7 @@
         <v>50</v>
       </c>
       <c r="G194" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H194" t="s" s="2">
         <v>43</v>
@@ -24945,7 +24917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" hidden="true">
+    <row r="195">
       <c r="A195" t="s" s="2">
         <v>384</v>
       </c>
@@ -24961,7 +24933,7 @@
         <v>50</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H195" t="s" s="2">
         <v>43</v>
@@ -25171,9 +25143,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" hidden="true">
+    <row r="197">
       <c r="A197" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25187,7 +25159,7 @@
         <v>42</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H197" t="s" s="2">
         <v>43</v>
@@ -25199,14 +25171,14 @@
         <v>211</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25255,7 +25227,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25284,7 +25256,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25393,7 +25365,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25504,7 +25476,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25617,7 +25589,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25643,16 +25615,16 @@
         <v>326</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25701,7 +25673,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>50</v>
@@ -25730,7 +25702,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25756,14 +25728,14 @@
         <v>125</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25791,10 +25763,10 @@
         <v>140</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
@@ -25812,7 +25784,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>50</v>
@@ -25841,7 +25813,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25867,16 +25839,16 @@
         <v>125</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -25905,7 +25877,7 @@
       </c>
       <c r="X203" s="2"/>
       <c r="Y203" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
@@ -25923,7 +25895,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -25950,9 +25922,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="204" hidden="true">
+    <row r="204">
       <c r="A204" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25966,7 +25938,7 @@
         <v>50</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H204" t="s" s="2">
         <v>43</v>
@@ -25978,14 +25950,14 @@
         <v>125</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26013,10 +25985,10 @@
         <v>140</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>43</v>
@@ -26034,7 +26006,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26063,7 +26035,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26089,16 +26061,16 @@
         <v>125</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="N205" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26126,10 +26098,10 @@
         <v>140</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>43</v>
@@ -26147,7 +26119,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26174,9 +26146,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26190,7 +26162,7 @@
         <v>42</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>43</v>
@@ -26202,14 +26174,14 @@
         <v>211</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26258,7 +26230,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26287,7 +26259,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26396,7 +26368,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26507,7 +26479,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26620,7 +26592,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26646,14 +26618,14 @@
         <v>326</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26702,7 +26674,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>50</v>
@@ -26729,9 +26701,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" hidden="true">
+    <row r="211">
       <c r="A211" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26745,7 +26717,7 @@
         <v>42</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>43</v>
@@ -26757,14 +26729,14 @@
         <v>125</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26792,10 +26764,10 @@
         <v>140</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
@@ -26813,7 +26785,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26840,9 +26812,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" hidden="true">
+    <row r="212">
       <c r="A212" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26856,7 +26828,7 @@
         <v>50</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H212" t="s" s="2">
         <v>43</v>
@@ -26868,14 +26840,14 @@
         <v>165</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26924,7 +26896,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -26953,7 +26925,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26979,14 +26951,14 @@
         <v>125</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27014,10 +26986,10 @@
         <v>140</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>43</v>
@@ -27035,7 +27007,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>50</v>
@@ -27064,7 +27036,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27087,17 +27059,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L214" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="K214" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27146,7 +27118,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27175,7 +27147,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27201,14 +27173,14 @@
         <v>326</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27257,7 +27229,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27286,7 +27258,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27297,7 +27269,7 @@
         <v>50</v>
       </c>
       <c r="F216" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G216" t="s" s="2">
         <v>43</v>
@@ -27312,16 +27284,16 @@
         <v>211</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27358,17 +27330,17 @@
         <v>43</v>
       </c>
       <c r="AA216" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AB216" s="2"/>
       <c r="AC216" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD216" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>50</v>
@@ -27389,7 +27361,7 @@
         <v>43</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>43</v>
@@ -27397,7 +27369,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27506,7 +27478,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27617,7 +27589,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27730,7 +27702,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27756,23 +27728,23 @@
         <v>337</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M220" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="R220" t="s" s="2">
         <v>43</v>
@@ -27814,7 +27786,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -27843,7 +27815,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27866,17 +27838,17 @@
         <v>51</v>
       </c>
       <c r="J221" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="K221" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27925,7 +27897,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>50</v>
@@ -27954,7 +27926,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27980,16 +27952,16 @@
         <v>52</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M222" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L222" t="s" s="2">
+      <c r="N222" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28038,7 +28010,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28067,10 +28039,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C223" t="s" s="2">
         <v>43</v>
@@ -28095,16 +28067,16 @@
         <v>211</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M223" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L223" t="s" s="2">
+      <c r="N223" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28153,7 +28125,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>50</v>
@@ -28174,7 +28146,7 @@
         <v>43</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>43</v>
@@ -28182,7 +28154,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28291,7 +28263,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28402,7 +28374,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28515,7 +28487,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28541,23 +28513,23 @@
         <v>337</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M227" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="L227" t="s" s="2">
+      <c r="N227" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="R227" t="s" s="2">
         <v>43</v>
@@ -28599,7 +28571,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>50</v>
@@ -28628,7 +28600,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28651,17 +28623,17 @@
         <v>51</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28710,7 +28682,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>50</v>
@@ -28739,7 +28711,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28765,16 +28737,16 @@
         <v>52</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M229" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L229" t="s" s="2">
+      <c r="N229" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28823,7 +28795,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -28852,7 +28824,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -28878,14 +28850,14 @@
         <v>211</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -28934,7 +28906,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -28963,7 +28935,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29072,7 +29044,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29183,7 +29155,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29296,7 +29268,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29319,19 +29291,19 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M234" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29380,7 +29352,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29409,7 +29381,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29435,14 +29407,14 @@
         <v>125</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29470,10 +29442,10 @@
         <v>131</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29491,7 +29463,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29520,7 +29492,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29543,17 +29515,17 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L236" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="K236" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L236" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29602,7 +29574,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29629,9 +29601,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29645,7 +29617,7 @@
         <v>42</v>
       </c>
       <c r="G237" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>43</v>
@@ -29657,14 +29629,14 @@
         <v>211</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29713,7 +29685,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29742,7 +29714,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29851,7 +29823,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29962,7 +29934,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30075,7 +30047,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30101,14 +30073,14 @@
         <v>326</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30157,7 +30129,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>50</v>
@@ -30184,9 +30156,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" hidden="true">
+    <row r="242">
       <c r="A242" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30200,7 +30172,7 @@
         <v>42</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>43</v>
@@ -30212,14 +30184,14 @@
         <v>326</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30268,7 +30240,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30295,9 +30267,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="243" hidden="true">
+    <row r="243">
       <c r="A243" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30311,7 +30283,7 @@
         <v>42</v>
       </c>
       <c r="G243" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H243" t="s" s="2">
         <v>43</v>
@@ -30323,14 +30295,14 @@
         <v>326</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30379,7 +30351,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30406,9 +30378,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" hidden="true">
+    <row r="244">
       <c r="A244" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30422,7 +30394,7 @@
         <v>42</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H244" t="s" s="2">
         <v>43</v>
@@ -30434,14 +30406,14 @@
         <v>326</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30490,7 +30462,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30517,9 +30489,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" hidden="true">
+    <row r="245">
       <c r="A245" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30533,7 +30505,7 @@
         <v>42</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H245" t="s" s="2">
         <v>43</v>
@@ -30545,14 +30517,14 @@
         <v>326</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30601,7 +30573,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30630,7 +30602,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30656,14 +30628,14 @@
         <v>125</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30692,7 +30664,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
@@ -30710,7 +30682,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30737,9 +30709,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" hidden="true">
+    <row r="247">
       <c r="A247" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30753,7 +30725,7 @@
         <v>50</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H247" t="s" s="2">
         <v>43</v>
@@ -30765,16 +30737,16 @@
         <v>125</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M247" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L247" t="s" s="2">
+      <c r="N247" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30802,10 +30774,10 @@
         <v>140</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Z247" t="s" s="2">
         <v>43</v>
@@ -30823,7 +30795,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30852,11 +30824,11 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30878,16 +30850,16 @@
         <v>125</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M248" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L248" t="s" s="2">
+      <c r="N248" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30916,7 +30888,7 @@
       </c>
       <c r="X248" s="2"/>
       <c r="Y248" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -30934,7 +30906,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>50</v>
@@ -30961,9 +30933,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="249" hidden="true">
+    <row r="249">
       <c r="A249" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -30974,10 +30946,10 @@
         <v>41</v>
       </c>
       <c r="F249" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H249" t="s" s="2">
         <v>43</v>
@@ -30989,16 +30961,16 @@
         <v>125</v>
       </c>
       <c r="K249" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M249" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L249" t="s" s="2">
+      <c r="N249" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M249" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31026,10 +30998,10 @@
         <v>140</v>
       </c>
       <c r="X249" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="Z249" t="s" s="2">
         <v>43</v>
@@ -31047,7 +31019,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31076,7 +31048,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31102,16 +31074,16 @@
         <v>125</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M250" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L250" t="s" s="2">
+      <c r="N250" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31139,10 +31111,10 @@
         <v>140</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31160,7 +31132,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31187,9 +31159,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" hidden="true">
+    <row r="251">
       <c r="A251" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31203,7 +31175,7 @@
         <v>50</v>
       </c>
       <c r="G251" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>43</v>
@@ -31215,14 +31187,14 @@
         <v>381</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31271,7 +31243,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31298,9 +31270,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252" hidden="true">
+    <row r="252">
       <c r="A252" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31314,7 +31286,7 @@
         <v>50</v>
       </c>
       <c r="G252" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H252" t="s" s="2">
         <v>43</v>
@@ -31323,17 +31295,17 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K252" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K252" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L252" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31361,10 +31333,10 @@
         <v>140</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31382,7 +31354,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31409,9 +31381,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="253" hidden="true">
+    <row r="253">
       <c r="A253" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31425,7 +31397,7 @@
         <v>50</v>
       </c>
       <c r="G253" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H253" t="s" s="2">
         <v>43</v>
@@ -31434,17 +31406,17 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K253" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="K253" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L253" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31493,7 +31465,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31522,7 +31494,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31545,17 +31517,17 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="K254" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K254" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31604,7 +31576,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31633,7 +31605,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31656,19 +31628,19 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="K255" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L255" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K255" t="s" s="2">
+      <c r="M255" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L255" t="s" s="2">
+      <c r="N255" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31717,7 +31689,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31744,9 +31716,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="256" hidden="true">
+    <row r="256">
       <c r="A256" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31760,7 +31732,7 @@
         <v>50</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H256" t="s" s="2">
         <v>43</v>
@@ -31769,19 +31741,19 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L256" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M256" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L256" t="s" s="2">
+      <c r="N256" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M256" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N256" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31830,7 +31802,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31859,7 +31831,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31882,17 +31854,17 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K257" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="K257" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -31941,7 +31913,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -31970,7 +31942,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -31996,16 +31968,16 @@
         <v>125</v>
       </c>
       <c r="K258" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L258" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M258" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L258" t="s" s="2">
+      <c r="N258" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="M258" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N258" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32033,10 +32005,10 @@
         <v>140</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
@@ -32054,7 +32026,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32083,7 +32055,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32109,14 +32081,14 @@
         <v>125</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32144,10 +32116,10 @@
         <v>140</v>
       </c>
       <c r="X259" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Y259" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32165,7 +32137,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32194,7 +32166,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32217,17 +32189,17 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="K260" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="K260" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="L260" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32276,7 +32248,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32305,7 +32277,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32331,14 +32303,14 @@
         <v>326</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32387,7 +32359,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32416,7 +32388,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32442,14 +32414,14 @@
         <v>211</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32493,10 +32465,10 @@
         <v>43</v>
       </c>
       <c r="AD262" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32525,7 +32497,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32634,7 +32606,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32745,7 +32717,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32858,7 +32830,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32884,16 +32856,16 @@
         <v>125</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L266" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M266" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="L266" t="s" s="2">
+      <c r="N266" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -32922,7 +32894,7 @@
       </c>
       <c r="X266" s="2"/>
       <c r="Y266" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
@@ -32940,7 +32912,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>50</v>
@@ -32969,7 +32941,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32995,16 +32967,16 @@
         <v>125</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L267" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M267" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="L267" t="s" s="2">
+      <c r="N267" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="M267" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33032,10 +33004,10 @@
         <v>140</v>
       </c>
       <c r="X267" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
@@ -33053,7 +33025,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33082,7 +33054,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33105,19 +33077,19 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L268" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M268" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L268" t="s" s="2">
+      <c r="N268" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M268" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33166,7 +33138,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33195,7 +33167,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33218,19 +33190,19 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L269" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M269" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33279,7 +33251,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33308,10 +33280,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C270" t="s" s="2">
         <v>43</v>
@@ -33336,14 +33308,14 @@
         <v>211</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33392,7 +33364,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33421,7 +33393,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33530,7 +33502,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33641,7 +33613,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33754,7 +33726,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33780,16 +33752,16 @@
         <v>125</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L274" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M274" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="L274" t="s" s="2">
+      <c r="N274" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -33818,7 +33790,7 @@
       </c>
       <c r="X274" s="2"/>
       <c r="Y274" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>43</v>
@@ -33836,7 +33808,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>50</v>
@@ -33865,7 +33837,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -33891,16 +33863,16 @@
         <v>125</v>
       </c>
       <c r="K275" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L275" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M275" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="L275" t="s" s="2">
+      <c r="N275" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="M275" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -33928,10 +33900,10 @@
         <v>140</v>
       </c>
       <c r="X275" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="Z275" t="s" s="2">
         <v>43</v>
@@ -33949,7 +33921,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -33978,7 +33950,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34001,19 +33973,19 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L276" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M276" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L276" t="s" s="2">
+      <c r="N276" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M276" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34062,7 +34034,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34091,7 +34063,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34114,19 +34086,19 @@
         <v>43</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L277" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M277" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34175,7 +34147,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34204,10 +34176,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C278" t="s" s="2">
         <v>43</v>
@@ -34232,14 +34204,14 @@
         <v>211</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34288,7 +34260,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34317,7 +34289,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34426,7 +34398,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34537,7 +34509,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34650,7 +34622,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34676,23 +34648,23 @@
         <v>125</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M282" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="L282" t="s" s="2">
+      <c r="N282" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R282" t="s" s="2">
         <v>43</v>
@@ -34713,10 +34685,10 @@
         <v>140</v>
       </c>
       <c r="X282" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
@@ -34734,7 +34706,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>50</v>
@@ -34763,7 +34735,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34789,16 +34761,16 @@
         <v>125</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L283" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M283" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="L283" t="s" s="2">
+      <c r="N283" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="M283" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34827,7 +34799,7 @@
       </c>
       <c r="X283" s="2"/>
       <c r="Y283" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
@@ -34845,7 +34817,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34874,7 +34846,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34897,19 +34869,19 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L284" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M284" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L284" t="s" s="2">
+      <c r="N284" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M284" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -34958,7 +34930,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -34987,7 +34959,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35010,19 +34982,19 @@
         <v>43</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K285" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L285" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M285" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L285" t="s" s="2">
+      <c r="N285" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="M285" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35071,7 +35043,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35100,7 +35072,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35126,10 +35098,10 @@
         <v>211</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
@@ -35180,7 +35152,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35209,7 +35181,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35318,7 +35290,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35429,7 +35401,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35542,7 +35514,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35568,14 +35540,14 @@
         <v>326</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35624,7 +35596,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>50</v>
@@ -35653,7 +35625,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35679,14 +35651,14 @@
         <v>125</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35714,10 +35686,10 @@
         <v>140</v>
       </c>
       <c r="X291" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Z291" t="s" s="2">
         <v>43</v>
@@ -35735,7 +35707,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -35764,7 +35736,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -35790,16 +35762,16 @@
         <v>125</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L292" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M292" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="N292" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M292" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -35827,10 +35799,10 @@
         <v>140</v>
       </c>
       <c r="X292" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Z292" t="s" s="2">
         <v>43</v>
@@ -35848,7 +35820,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -35877,11 +35849,11 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35903,16 +35875,16 @@
         <v>125</v>
       </c>
       <c r="K293" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L293" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M293" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L293" t="s" s="2">
+      <c r="N293" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M293" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -35940,10 +35912,10 @@
         <v>140</v>
       </c>
       <c r="X293" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y293" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>43</v>
@@ -35961,7 +35933,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>50</v>
@@ -35990,7 +35962,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36016,16 +35988,16 @@
         <v>125</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L294" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M294" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N294" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M294" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36053,10 +36025,10 @@
         <v>140</v>
       </c>
       <c r="X294" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="Z294" t="s" s="2">
         <v>43</v>
@@ -36074,7 +36046,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36103,7 +36075,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36129,16 +36101,16 @@
         <v>125</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L295" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M295" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L295" t="s" s="2">
+      <c r="N295" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M295" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N295" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36166,10 +36138,10 @@
         <v>140</v>
       </c>
       <c r="X295" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Y295" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Z295" t="s" s="2">
         <v>43</v>
@@ -36187,7 +36159,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36216,7 +36188,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36239,17 +36211,17 @@
         <v>43</v>
       </c>
       <c r="J296" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K296" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L296" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="K296" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L296" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36298,7 +36270,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36327,7 +36299,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36350,17 +36322,17 @@
         <v>43</v>
       </c>
       <c r="J297" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="K297" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K297" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36409,7 +36381,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36438,7 +36410,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36461,19 +36433,19 @@
         <v>43</v>
       </c>
       <c r="J298" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="K298" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L298" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K298" t="s" s="2">
+      <c r="M298" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L298" t="s" s="2">
+      <c r="N298" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M298" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36522,7 +36494,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36551,7 +36523,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36574,19 +36546,19 @@
         <v>43</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K299" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L299" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M299" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L299" t="s" s="2">
+      <c r="N299" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M299" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36635,7 +36607,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36664,7 +36636,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36687,17 +36659,17 @@
         <v>43</v>
       </c>
       <c r="J300" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K300" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L300" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="K300" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L300" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -36746,7 +36718,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -36775,7 +36747,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -36801,14 +36773,14 @@
         <v>326</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -36857,7 +36829,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -36886,7 +36858,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -36912,10 +36884,10 @@
         <v>43</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -36966,7 +36938,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -36995,7 +36967,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37021,10 +36993,10 @@
         <v>211</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
@@ -37075,7 +37047,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37104,7 +37076,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37213,7 +37185,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37324,7 +37296,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37437,7 +37409,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37463,14 +37435,14 @@
         <v>326</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37519,7 +37491,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>50</v>
@@ -37548,7 +37520,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37574,14 +37546,14 @@
         <v>125</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37609,10 +37581,10 @@
         <v>140</v>
       </c>
       <c r="X308" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Y308" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Z308" t="s" s="2">
         <v>43</v>
@@ -37630,7 +37602,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37659,7 +37631,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37685,16 +37657,16 @@
         <v>125</v>
       </c>
       <c r="K309" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L309" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M309" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L309" t="s" s="2">
+      <c r="N309" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M309" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N309" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -37722,10 +37694,10 @@
         <v>140</v>
       </c>
       <c r="X309" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Y309" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
@@ -37743,7 +37715,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -37772,11 +37744,11 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37798,16 +37770,16 @@
         <v>125</v>
       </c>
       <c r="K310" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L310" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M310" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L310" t="s" s="2">
+      <c r="N310" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M310" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -37835,10 +37807,10 @@
         <v>140</v>
       </c>
       <c r="X310" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Z310" t="s" s="2">
         <v>43</v>
@@ -37856,7 +37828,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>50</v>
@@ -37885,7 +37857,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -37911,16 +37883,16 @@
         <v>125</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L311" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M311" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N311" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M311" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -37948,10 +37920,10 @@
         <v>140</v>
       </c>
       <c r="X311" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="Z311" t="s" s="2">
         <v>43</v>
@@ -37969,7 +37941,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -37998,7 +37970,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38024,16 +37996,16 @@
         <v>125</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M312" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L312" t="s" s="2">
+      <c r="N312" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38061,10 +38033,10 @@
         <v>140</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>43</v>
@@ -38082,7 +38054,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38111,7 +38083,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38134,17 +38106,17 @@
         <v>43</v>
       </c>
       <c r="J313" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K313" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="K313" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38193,7 +38165,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38222,7 +38194,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38245,17 +38217,17 @@
         <v>43</v>
       </c>
       <c r="J314" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="K314" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K314" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L314" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38304,7 +38276,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38333,7 +38305,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38356,19 +38328,19 @@
         <v>43</v>
       </c>
       <c r="J315" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="K315" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K315" t="s" s="2">
+      <c r="M315" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L315" t="s" s="2">
+      <c r="N315" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M315" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38417,7 +38389,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38446,7 +38418,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38469,19 +38441,19 @@
         <v>43</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M316" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M316" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38530,7 +38502,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38559,7 +38531,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38582,17 +38554,17 @@
         <v>43</v>
       </c>
       <c r="J317" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L317" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="K317" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L317" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38641,7 +38613,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38670,7 +38642,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38696,14 +38668,14 @@
         <v>326</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -38752,7 +38724,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -38781,7 +38753,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -38807,10 +38779,10 @@
         <v>43</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
@@ -38861,7 +38833,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -38890,7 +38862,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -38916,14 +38888,14 @@
         <v>211</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -38972,7 +38944,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39001,7 +38973,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39110,7 +39082,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39221,7 +39193,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39334,7 +39306,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39360,14 +39332,14 @@
         <v>326</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39416,7 +39388,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39445,7 +39417,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39471,14 +39443,14 @@
         <v>326</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39527,7 +39499,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39556,7 +39528,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39582,14 +39554,14 @@
         <v>326</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39638,7 +39610,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39667,7 +39639,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39690,17 +39662,17 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>331</v>
+        <v>778</v>
       </c>
       <c r="K327" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="L327" t="s" s="2">
         <v>780</v>
-      </c>
-      <c r="L327" t="s" s="2">
-        <v>781</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -39749,7 +39721,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -39778,11 +39750,11 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39804,16 +39776,16 @@
         <v>125</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L328" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M328" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L328" t="s" s="2">
+      <c r="N328" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M328" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N328" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -39841,10 +39813,10 @@
         <v>140</v>
       </c>
       <c r="X328" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y328" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Z328" t="s" s="2">
         <v>43</v>
@@ -39862,7 +39834,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>50</v>
@@ -39891,7 +39863,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -39917,16 +39889,16 @@
         <v>125</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L329" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M329" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N329" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M329" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N329" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -39954,10 +39926,10 @@
         <v>140</v>
       </c>
       <c r="X329" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Y329" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -39975,7 +39947,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40004,7 +39976,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40030,16 +40002,16 @@
         <v>125</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L330" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M330" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L330" t="s" s="2">
+      <c r="N330" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M330" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N330" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40067,10 +40039,10 @@
         <v>140</v>
       </c>
       <c r="X330" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -40088,7 +40060,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40117,7 +40089,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40143,14 +40115,14 @@
         <v>381</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40199,7 +40171,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40228,7 +40200,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40251,17 +40223,17 @@
         <v>43</v>
       </c>
       <c r="J332" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K332" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L332" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K332" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L332" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40289,10 +40261,10 @@
         <v>140</v>
       </c>
       <c r="X332" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Y332" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Z332" t="s" s="2">
         <v>43</v>
@@ -40310,7 +40282,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40339,7 +40311,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40362,17 +40334,17 @@
         <v>43</v>
       </c>
       <c r="J333" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K333" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L333" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="K333" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L333" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40421,7 +40393,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40450,7 +40422,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40473,17 +40445,17 @@
         <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="K334" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L334" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K334" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L334" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M334" s="2"/>
       <c r="N334" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40532,7 +40504,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40561,7 +40533,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40584,19 +40556,19 @@
         <v>43</v>
       </c>
       <c r="J335" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="K335" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K335" t="s" s="2">
+      <c r="M335" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L335" t="s" s="2">
+      <c r="N335" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M335" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40645,7 +40617,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40674,7 +40646,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40697,19 +40669,19 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L336" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M336" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L336" t="s" s="2">
+      <c r="N336" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M336" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -40758,7 +40730,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -40787,7 +40759,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -40813,16 +40785,16 @@
         <v>125</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="L337" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M337" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="N337" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="M337" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -40850,10 +40822,10 @@
         <v>140</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -40871,7 +40843,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -40900,7 +40872,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -40926,14 +40898,14 @@
         <v>125</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M338" s="2"/>
       <c r="N338" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -40961,10 +40933,10 @@
         <v>140</v>
       </c>
       <c r="X338" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Y338" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -40982,7 +40954,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41011,7 +40983,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41037,14 +41009,14 @@
         <v>326</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M339" s="2"/>
       <c r="N339" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41093,7 +41065,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41122,7 +41094,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41148,10 +41120,10 @@
         <v>43</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
@@ -41202,7 +41174,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41231,7 +41203,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41257,10 +41229,10 @@
         <v>211</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -41311,7 +41283,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41340,7 +41312,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41449,7 +41421,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41560,7 +41532,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41673,11 +41645,11 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -41699,16 +41671,16 @@
         <v>125</v>
       </c>
       <c r="K345" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L345" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M345" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L345" t="s" s="2">
+      <c r="N345" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M345" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -41736,10 +41708,10 @@
         <v>140</v>
       </c>
       <c r="X345" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y345" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Z345" t="s" s="2">
         <v>43</v>
@@ -41757,7 +41729,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>50</v>
@@ -41786,7 +41758,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -41812,16 +41784,16 @@
         <v>125</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L346" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N346" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M346" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -41849,10 +41821,10 @@
         <v>140</v>
       </c>
       <c r="X346" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -41870,7 +41842,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -41899,7 +41871,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -41922,17 +41894,17 @@
         <v>43</v>
       </c>
       <c r="J347" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L347" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="K347" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L347" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -41981,7 +41953,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42010,7 +41982,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42033,17 +42005,17 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L348" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K348" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L348" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42092,7 +42064,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42121,7 +42093,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42144,19 +42116,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L349" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K349" t="s" s="2">
+      <c r="M349" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L349" t="s" s="2">
+      <c r="N349" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M349" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N349" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42205,7 +42177,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42234,7 +42206,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42257,19 +42229,19 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K350" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M350" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L350" t="s" s="2">
+      <c r="N350" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M350" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42318,7 +42290,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42347,7 +42319,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42373,14 +42345,14 @@
         <v>326</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42429,7 +42401,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42458,7 +42430,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42484,10 +42456,10 @@
         <v>43</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
@@ -42538,7 +42510,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42567,7 +42539,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42593,10 +42565,10 @@
         <v>211</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -42647,7 +42619,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42676,7 +42648,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -42785,7 +42757,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -42896,7 +42868,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43009,11 +42981,11 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -43035,16 +43007,16 @@
         <v>125</v>
       </c>
       <c r="K357" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M357" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L357" t="s" s="2">
+      <c r="N357" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M357" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N357" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43072,10 +43044,10 @@
         <v>140</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43093,7 +43065,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>50</v>
@@ -43122,7 +43094,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43148,16 +43120,16 @@
         <v>125</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L358" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N358" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M358" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N358" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43185,10 +43157,10 @@
         <v>140</v>
       </c>
       <c r="X358" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Y358" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="Z358" t="s" s="2">
         <v>43</v>
@@ -43206,7 +43178,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43235,7 +43207,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43258,17 +43230,17 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L359" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="K359" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L359" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M359" s="2"/>
       <c r="N359" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43317,7 +43289,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43346,7 +43318,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43369,17 +43341,17 @@
         <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="K360" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L360" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K360" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L360" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43428,7 +43400,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43457,7 +43429,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43480,19 +43452,19 @@
         <v>43</v>
       </c>
       <c r="J361" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L361" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="K361" t="s" s="2">
+      <c r="M361" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L361" t="s" s="2">
+      <c r="N361" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M361" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N361" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43541,7 +43513,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43570,7 +43542,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43593,19 +43565,19 @@
         <v>43</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M362" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L362" t="s" s="2">
+      <c r="N362" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M362" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43654,7 +43626,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43683,7 +43655,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43709,14 +43681,14 @@
         <v>326</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -43765,7 +43737,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -43794,7 +43766,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -43820,10 +43792,10 @@
         <v>43</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -43874,7 +43846,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -43903,7 +43875,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -43929,14 +43901,14 @@
         <v>43</v>
       </c>
       <c r="K365" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="L365" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="L365" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="M365" s="2"/>
       <c r="N365" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -43985,7 +43957,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44014,7 +43986,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44040,16 +44012,16 @@
         <v>211</v>
       </c>
       <c r="K366" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="L366" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="L366" t="s" s="2">
+      <c r="M366" t="s" s="2">
         <v>830</v>
       </c>
-      <c r="M366" t="s" s="2">
+      <c r="N366" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="N366" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44098,7 +44070,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44127,7 +44099,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44236,7 +44208,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44347,7 +44319,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44460,7 +44432,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44486,16 +44458,16 @@
         <v>125</v>
       </c>
       <c r="K370" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="M370" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="L370" t="s" s="2">
+      <c r="N370" t="s" s="2">
         <v>837</v>
-      </c>
-      <c r="M370" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N370" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44524,7 +44496,7 @@
       </c>
       <c r="X370" s="2"/>
       <c r="Y370" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44542,7 +44514,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>50</v>
@@ -44571,7 +44543,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44594,17 +44566,17 @@
         <v>51</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K371" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L371" t="s" s="2">
         <v>840</v>
-      </c>
-      <c r="L371" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44653,7 +44625,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>50</v>
@@ -44682,7 +44654,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -44708,14 +44680,14 @@
         <v>211</v>
       </c>
       <c r="K372" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="L372" t="s" s="2">
         <v>844</v>
-      </c>
-      <c r="L372" t="s" s="2">
-        <v>845</v>
       </c>
       <c r="M372" s="2"/>
       <c r="N372" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -44764,7 +44736,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -44793,7 +44765,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -44902,7 +44874,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45013,7 +44985,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45126,7 +45098,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45152,14 +45124,14 @@
         <v>125</v>
       </c>
       <c r="K376" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="L376" t="s" s="2">
         <v>851</v>
-      </c>
-      <c r="L376" t="s" s="2">
-        <v>852</v>
       </c>
       <c r="M376" s="2"/>
       <c r="N376" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45187,11 +45159,11 @@
         <v>140</v>
       </c>
       <c r="X376" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="Y376" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="Y376" t="s" s="2">
-        <v>855</v>
-      </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
       </c>
@@ -45208,7 +45180,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45237,7 +45209,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45260,19 +45232,19 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K377" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L377" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="L377" t="s" s="2">
+      <c r="M377" t="s" s="2">
         <v>858</v>
       </c>
-      <c r="M377" t="s" s="2">
+      <c r="N377" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="N377" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45321,7 +45293,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
@@ -45350,7 +45322,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45376,14 +45348,14 @@
         <v>125</v>
       </c>
       <c r="K378" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="L378" t="s" s="2">
         <v>862</v>
-      </c>
-      <c r="L378" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="M378" s="2"/>
       <c r="N378" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45412,7 +45384,7 @@
       </c>
       <c r="X378" s="2"/>
       <c r="Y378" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="Z378" t="s" s="2">
         <v>43</v>
@@ -45430,7 +45402,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45459,7 +45431,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45482,17 +45454,17 @@
         <v>43</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K379" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="L379" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="L379" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45541,7 +45513,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45570,7 +45542,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45593,17 +45565,17 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K380" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="L380" t="s" s="2">
         <v>870</v>
-      </c>
-      <c r="L380" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45652,7 +45624,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45681,7 +45653,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45707,16 +45679,16 @@
         <v>108</v>
       </c>
       <c r="K381" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="L381" t="s" s="2">
         <v>874</v>
       </c>
-      <c r="L381" t="s" s="2">
+      <c r="M381" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M381" t="s" s="2">
+      <c r="N381" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N381" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -45765,7 +45737,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -45794,7 +45766,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -45820,16 +45792,16 @@
         <v>125</v>
       </c>
       <c r="K382" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="L382" t="s" s="2">
         <v>879</v>
       </c>
-      <c r="L382" t="s" s="2">
+      <c r="M382" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="M382" t="s" s="2">
+      <c r="N382" t="s" s="2">
         <v>881</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>882</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -45857,11 +45829,11 @@
         <v>140</v>
       </c>
       <c r="X382" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="Y382" t="s" s="2">
         <v>883</v>
       </c>
-      <c r="Y382" t="s" s="2">
-        <v>884</v>
-      </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
       </c>
@@ -45878,7 +45850,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -45907,7 +45879,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -45930,19 +45902,19 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="K383" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="K383" t="s" s="2">
+      <c r="L383" t="s" s="2">
         <v>887</v>
       </c>
-      <c r="L383" t="s" s="2">
+      <c r="M383" t="s" s="2">
         <v>888</v>
       </c>
-      <c r="M383" t="s" s="2">
+      <c r="N383" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="N383" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -45991,7 +45963,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46020,7 +45992,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46046,14 +46018,14 @@
         <v>211</v>
       </c>
       <c r="K384" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="L384" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="L384" t="s" s="2">
-        <v>893</v>
       </c>
       <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46102,7 +46074,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46131,7 +46103,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46240,7 +46212,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46351,7 +46323,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46464,7 +46436,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46490,14 +46462,14 @@
         <v>326</v>
       </c>
       <c r="K388" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="L388" t="s" s="2">
         <v>899</v>
-      </c>
-      <c r="L388" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
@@ -46546,7 +46518,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46575,7 +46547,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46601,14 +46573,14 @@
         <v>70</v>
       </c>
       <c r="K389" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L389" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="L389" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="M389" s="2"/>
       <c r="N389" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -46636,11 +46608,11 @@
         <v>119</v>
       </c>
       <c r="X389" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="Y389" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="Y389" t="s" s="2">
-        <v>907</v>
-      </c>
       <c r="Z389" t="s" s="2">
         <v>43</v>
       </c>
@@ -46657,7 +46629,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -46686,7 +46658,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -46712,14 +46684,14 @@
         <v>52</v>
       </c>
       <c r="K390" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="L390" t="s" s="2">
         <v>909</v>
-      </c>
-      <c r="L390" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="M390" s="2"/>
       <c r="N390" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -46768,7 +46740,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -46797,7 +46769,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -46823,16 +46795,16 @@
         <v>125</v>
       </c>
       <c r="K391" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="L391" t="s" s="2">
         <v>913</v>
       </c>
-      <c r="L391" t="s" s="2">
+      <c r="M391" t="s" s="2">
         <v>914</v>
       </c>
-      <c r="M391" t="s" s="2">
+      <c r="N391" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="N391" t="s" s="2">
-        <v>916</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -46881,7 +46853,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -46910,7 +46882,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -46936,16 +46908,16 @@
         <v>158</v>
       </c>
       <c r="K392" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="L392" t="s" s="2">
         <v>918</v>
       </c>
-      <c r="L392" t="s" s="2">
+      <c r="M392" t="s" s="2">
         <v>919</v>
       </c>
-      <c r="M392" t="s" s="2">
+      <c r="N392" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="N392" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -46994,7 +46966,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47023,7 +46995,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47049,10 +47021,10 @@
         <v>211</v>
       </c>
       <c r="K393" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="L393" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="L393" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
@@ -47103,7 +47075,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47132,7 +47104,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47241,7 +47213,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47352,7 +47324,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47465,7 +47437,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47491,16 +47463,16 @@
         <v>125</v>
       </c>
       <c r="K397" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M397" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L397" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M397" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="N397" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O397" t="s" s="2">
         <v>43</v>
@@ -47528,10 +47500,10 @@
         <v>140</v>
       </c>
       <c r="X397" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Y397" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Z397" t="s" s="2">
         <v>43</v>
@@ -47549,7 +47521,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>50</v>
@@ -47578,7 +47550,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47604,14 +47576,14 @@
         <v>337</v>
       </c>
       <c r="K398" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L398" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L398" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M398" s="2"/>
       <c r="N398" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O398" t="s" s="2">
         <v>43</v>
@@ -47660,7 +47632,7 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
@@ -47689,7 +47661,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -47715,16 +47687,16 @@
         <v>52</v>
       </c>
       <c r="K399" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="L399" t="s" s="2">
         <v>935</v>
       </c>
-      <c r="L399" t="s" s="2">
+      <c r="M399" t="s" s="2">
         <v>936</v>
       </c>
-      <c r="M399" t="s" s="2">
+      <c r="N399" t="s" s="2">
         <v>937</v>
-      </c>
-      <c r="N399" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -47773,7 +47745,7 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
@@ -47802,7 +47774,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -47828,16 +47800,16 @@
         <v>52</v>
       </c>
       <c r="K400" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="L400" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="L400" t="s" s="2">
+      <c r="M400" t="s" s="2">
         <v>941</v>
       </c>
-      <c r="M400" t="s" s="2">
+      <c r="N400" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="N400" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -47886,7 +47858,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -47915,7 +47887,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -47941,14 +47913,14 @@
         <v>125</v>
       </c>
       <c r="K401" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L401" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L401" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -47976,11 +47948,11 @@
         <v>140</v>
       </c>
       <c r="X401" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="Y401" t="s" s="2">
         <v>948</v>
       </c>
-      <c r="Y401" t="s" s="2">
-        <v>949</v>
-      </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
       </c>
@@ -47997,7 +47969,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48026,7 +47998,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48052,14 +48024,14 @@
         <v>125</v>
       </c>
       <c r="K402" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="L402" t="s" s="2">
         <v>951</v>
-      </c>
-      <c r="L402" t="s" s="2">
-        <v>952</v>
       </c>
       <c r="M402" s="2"/>
       <c r="N402" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48087,11 +48059,11 @@
         <v>140</v>
       </c>
       <c r="X402" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="Y402" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="Y402" t="s" s="2">
-        <v>955</v>
-      </c>
       <c r="Z402" t="s" s="2">
         <v>43</v>
       </c>
@@ -48108,7 +48080,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48137,7 +48109,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48163,14 +48135,14 @@
         <v>125</v>
       </c>
       <c r="K403" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="L403" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="L403" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="M403" s="2"/>
       <c r="N403" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48198,11 +48170,11 @@
         <v>140</v>
       </c>
       <c r="X403" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="Y403" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="Y403" t="s" s="2">
-        <v>960</v>
-      </c>
       <c r="Z403" t="s" s="2">
         <v>43</v>
       </c>
@@ -48219,7 +48191,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48248,7 +48220,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48274,10 +48246,10 @@
         <v>211</v>
       </c>
       <c r="K404" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="L404" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="L404" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
@@ -48328,7 +48300,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48357,7 +48329,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48466,7 +48438,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48577,7 +48549,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48690,7 +48662,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -48716,16 +48688,16 @@
         <v>125</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L408" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="M408" t="s" s="2">
         <v>968</v>
       </c>
-      <c r="M408" t="s" s="2">
+      <c r="N408" t="s" s="2">
         <v>969</v>
-      </c>
-      <c r="N408" t="s" s="2">
-        <v>970</v>
       </c>
       <c r="O408" t="s" s="2">
         <v>43</v>
@@ -48753,11 +48725,11 @@
         <v>140</v>
       </c>
       <c r="X408" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="Y408" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="Y408" t="s" s="2">
-        <v>972</v>
-      </c>
       <c r="Z408" t="s" s="2">
         <v>43</v>
       </c>
@@ -48774,7 +48746,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>50</v>
@@ -48803,7 +48775,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -48826,17 +48798,17 @@
         <v>43</v>
       </c>
       <c r="J409" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="K409" t="s" s="2">
         <v>974</v>
       </c>
-      <c r="K409" t="s" s="2">
+      <c r="L409" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L409" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M409" s="2"/>
       <c r="N409" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -48885,7 +48857,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
@@ -48914,7 +48886,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -48937,17 +48909,17 @@
         <v>43</v>
       </c>
       <c r="J410" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="K410" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="K410" t="s" s="2">
+      <c r="L410" t="s" s="2">
         <v>980</v>
-      </c>
-      <c r="L410" t="s" s="2">
-        <v>981</v>
       </c>
       <c r="M410" s="2"/>
       <c r="N410" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -48996,7 +48968,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>

--- a/output/CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -1367,7 +1367,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin/ValueSet/carin-bb-tob-admittype</t>
+    <t>http://hl7.org/fhir/us/ValueSet/nubc-prioritytypeofadmissionorvisit</t>
   </si>
   <si>
     <t>discharge-status</t>
@@ -1379,7 +1379,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin/ValueSet/carin-bb-discharge-status</t>
+    <t>http://hl7.org/fhir/us/ValueSet/nubc-patientdischargestatus</t>
   </si>
   <si>
     <t>ms-drg</t>
